--- a/AutomationFrameworkWDTestNGJAVA/src/main/resources/unicodeTech/testInformation/TestSuiteA.xlsx
+++ b/AutomationFrameworkWDTestNGJAVA/src/main/resources/unicodeTech/testInformation/TestSuiteA.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dj\git\automationframework\AutomationFrameworkWDTestNGJAVA\src\main\resources\unicodeTech\testInformation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16245" windowHeight="2775"/>
   </bookViews>
@@ -12,12 +17,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:J7"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Execution</t>
   </si>
@@ -65,6 +69,9 @@
   </si>
   <si>
     <t>unicode2</t>
+  </si>
+  <si>
+    <t>n</t>
   </si>
 </sst>
 </file>
@@ -480,7 +487,7 @@
         <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/AutomationFrameworkWDTestNGJAVA/src/main/resources/unicodeTech/testInformation/TestSuiteA.xlsx
+++ b/AutomationFrameworkWDTestNGJAVA/src/main/resources/unicodeTech/testInformation/TestSuiteA.xlsx
@@ -26,9 +26,6 @@
     <t>Execution</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>TestCaseID</t>
   </si>
   <si>
@@ -72,6 +69,9 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -459,10 +459,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
@@ -470,24 +470,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -512,34 +512,34 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
